--- a/test/samples/test_stock_and_option_sheet.xlsx
+++ b/test/samples/test_stock_and_option_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yacintmimi/Documents/UVM/Fall 2017/ma_option_vol/test/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3AC44F-B8B6-C440-BD40-B74C45872C89}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9CBCF6-99F3-FF44-AD56-A506AB26C4D4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options Chain" sheetId="1" r:id="rId1"/>
@@ -3181,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8008,11 +8008,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C339"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -8034,24 +8037,24 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>20130713</v>
+      <c r="B3" s="2">
+        <v>41468</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>20140708</v>
+      <c r="B4" s="2">
+        <v>41828</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>20141020</v>
+      <c r="B5" s="2">
+        <v>41932</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
